--- a/Student Data/FourthYearStudents.xlsx
+++ b/Student Data/FourthYearStudents.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\Student Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307F228B-D777-4535-AEBA-D56AA157042D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C306A59C-FF93-4E95-AFC0-773BBCA1B655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="csa" sheetId="1" r:id="rId1"/>
     <sheet name="csb" sheetId="2" r:id="rId2"/>
-    <sheet name="eee" sheetId="3" r:id="rId3"/>
+    <sheet name="ce" sheetId="4" r:id="rId3"/>
+    <sheet name="ec" sheetId="5" r:id="rId4"/>
+    <sheet name="ee" sheetId="3" r:id="rId5"/>
+    <sheet name="me" sheetId="6" r:id="rId6"/>
+    <sheet name="mr" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="306">
   <si>
     <t>rollnum</t>
   </si>
@@ -414,13 +418,544 @@
   </si>
   <si>
     <t>SOLOMON V JOSEPH</t>
+  </si>
+  <si>
+    <t>ALEESHA P MAXWELL</t>
+  </si>
+  <si>
+    <t>ANIRUDH K P</t>
+  </si>
+  <si>
+    <t>ANJAL CHACKO</t>
+  </si>
+  <si>
+    <t>ANJALI SANTO</t>
+  </si>
+  <si>
+    <t>ANSHAD C A</t>
+  </si>
+  <si>
+    <t>ANU JOSHY</t>
+  </si>
+  <si>
+    <t>ARCHITHA.K.P</t>
+  </si>
+  <si>
+    <t>DELVIN J CHIRAMAL</t>
+  </si>
+  <si>
+    <t>GAYATHRY NP</t>
+  </si>
+  <si>
+    <t>GIBIN THOMAS</t>
+  </si>
+  <si>
+    <t>JEENA JOHNSON</t>
+  </si>
+  <si>
+    <t>JESBIN JOY</t>
+  </si>
+  <si>
+    <t>JOHN JOSEPH</t>
+  </si>
+  <si>
+    <t>KEVIN SEBASTIAN</t>
+  </si>
+  <si>
+    <t>KIRAN SVAM M</t>
+  </si>
+  <si>
+    <t>K SANJAY KRISHNA</t>
+  </si>
+  <si>
+    <t>LIYA SAJI</t>
+  </si>
+  <si>
+    <t>MERINA ANN MARTIN</t>
+  </si>
+  <si>
+    <t>MILSEN K S</t>
+  </si>
+  <si>
+    <t>NAVYA SANTHOSH</t>
+  </si>
+  <si>
+    <t>PRINCE FRANCIS</t>
+  </si>
+  <si>
+    <t>SANJAY S NATH</t>
+  </si>
+  <si>
+    <t>SUBIN V</t>
+  </si>
+  <si>
+    <t>SWETHA SURESH T</t>
+  </si>
+  <si>
+    <t>TEZ TREESA JOSEPH</t>
+  </si>
+  <si>
+    <t>TINTU FRANCIS</t>
+  </si>
+  <si>
+    <t>VAISHNAV C</t>
+  </si>
+  <si>
+    <t>V. SHIKHIL KRISHNA</t>
+  </si>
+  <si>
+    <t>ASWATHY P H</t>
+  </si>
+  <si>
+    <t>ATHIRA VIJAYAN</t>
+  </si>
+  <si>
+    <t>HARSHA NARAYANAN</t>
+  </si>
+  <si>
+    <t>JISNA J KALATHIPARAMBIL</t>
+  </si>
+  <si>
+    <t>PRAJEESH MON C.J</t>
+  </si>
+  <si>
+    <t>SHILJA K S</t>
+  </si>
+  <si>
+    <t>SNEHA SURESH</t>
+  </si>
+  <si>
+    <t>SREYA DAVIS</t>
+  </si>
+  <si>
+    <t>ADITYA K JYOTHIRAJ</t>
+  </si>
+  <si>
+    <t>AGNA ABRAHAM</t>
+  </si>
+  <si>
+    <t>AISWARYA HARIHARAN</t>
+  </si>
+  <si>
+    <t>ALEN PAUL</t>
+  </si>
+  <si>
+    <t>ANAGHA M</t>
+  </si>
+  <si>
+    <t>ANJALI ARAVIND</t>
+  </si>
+  <si>
+    <t>ANJALI K</t>
+  </si>
+  <si>
+    <t>ANN MARIE RAJAN</t>
+  </si>
+  <si>
+    <t>ASHBAN SHYJAN</t>
+  </si>
+  <si>
+    <t>BHAVANA VIJAYAN</t>
+  </si>
+  <si>
+    <t>C AKSHAY RAJ</t>
+  </si>
+  <si>
+    <t>CHRIS NOYAL TS</t>
+  </si>
+  <si>
+    <t>CHRISWIN LINGSON</t>
+  </si>
+  <si>
+    <t>DAVID JOSEPH KUNNAN</t>
+  </si>
+  <si>
+    <t>DIVYA SASIKUMAR NAIR</t>
+  </si>
+  <si>
+    <t>DONY BABU</t>
+  </si>
+  <si>
+    <t>GOKUL.P</t>
+  </si>
+  <si>
+    <t>HELNA JOY M</t>
+  </si>
+  <si>
+    <t>JOSEPH JAISON P</t>
+  </si>
+  <si>
+    <t>JOSHWIN BABU</t>
+  </si>
+  <si>
+    <t>M FATHIMA NAZRIN</t>
+  </si>
+  <si>
+    <t>NAVEEN RAJESH</t>
+  </si>
+  <si>
+    <t>SANA SAID</t>
+  </si>
+  <si>
+    <t>SANHA SALAM</t>
+  </si>
+  <si>
+    <t>SANURAJ K R</t>
+  </si>
+  <si>
+    <t>SAYANA.S</t>
+  </si>
+  <si>
+    <t>SUMYUKTHA V K</t>
+  </si>
+  <si>
+    <t>SREEHARI</t>
+  </si>
+  <si>
+    <t>ABDUL BASITH ABDUL ASEEZ</t>
+  </si>
+  <si>
+    <t>ABHIJITH R</t>
+  </si>
+  <si>
+    <t>ABHINAV K KRISHNA</t>
+  </si>
+  <si>
+    <t>ABIN C T</t>
+  </si>
+  <si>
+    <t>ADHARSH.PRAKASH</t>
+  </si>
+  <si>
+    <t>ADITHYA JYOTHIS</t>
+  </si>
+  <si>
+    <t>AKASH JAMES</t>
+  </si>
+  <si>
+    <t>AKSHAY KRISHNAN.R</t>
+  </si>
+  <si>
+    <t>AKSHAY S</t>
+  </si>
+  <si>
+    <t>ALAN REJI</t>
+  </si>
+  <si>
+    <t>ALAN.S.THATTIL</t>
+  </si>
+  <si>
+    <t>ALWIN JOMON</t>
+  </si>
+  <si>
+    <t>ALWIN THOMAS K</t>
+  </si>
+  <si>
+    <t>ANAND MILTON O</t>
+  </si>
+  <si>
+    <t>ANAS MOHAMMED</t>
+  </si>
+  <si>
+    <t>ANJAY SHAMEJ</t>
+  </si>
+  <si>
+    <t>ANNAPIUS</t>
+  </si>
+  <si>
+    <t>ANSHIF E A</t>
+  </si>
+  <si>
+    <t>ARJUN VIJAY</t>
+  </si>
+  <si>
+    <t>ARON SAJI</t>
+  </si>
+  <si>
+    <t>ARUN GIRI</t>
+  </si>
+  <si>
+    <t>ARVIND A MENON</t>
+  </si>
+  <si>
+    <t>ASHISH DANIEL</t>
+  </si>
+  <si>
+    <t>ASMA R A</t>
+  </si>
+  <si>
+    <t>ATHUL KRISHNA C</t>
+  </si>
+  <si>
+    <t>BOUDHIK S</t>
+  </si>
+  <si>
+    <t>EMINTO CB</t>
+  </si>
+  <si>
+    <t>FEBIN YESUDAS</t>
+  </si>
+  <si>
+    <t>GIRIDHAR JAGADEES CHANDRAN</t>
+  </si>
+  <si>
+    <t>GIRISH KRISHNAN P K</t>
+  </si>
+  <si>
+    <t>HAMIL SUNNY</t>
+  </si>
+  <si>
+    <t>HARIPRASAD M U</t>
+  </si>
+  <si>
+    <t>JOEL E J</t>
+  </si>
+  <si>
+    <t>JOEL JOY</t>
+  </si>
+  <si>
+    <t>KIRAN JOY</t>
+  </si>
+  <si>
+    <t>K VISHNU</t>
+  </si>
+  <si>
+    <t>MOHAMMED IBRAHIM SHAH M A</t>
+  </si>
+  <si>
+    <t>MOHAMMED JABIR ALI.C</t>
+  </si>
+  <si>
+    <t>MOHAMMED RAYAN</t>
+  </si>
+  <si>
+    <t>MUHAMMED ANAS K A</t>
+  </si>
+  <si>
+    <t>MUHAMMED ANSHIF MM</t>
+  </si>
+  <si>
+    <t>MUHAMMED BADSHA K P</t>
+  </si>
+  <si>
+    <t>NIDHIN THOMAS</t>
+  </si>
+  <si>
+    <t>P J BIJESH</t>
+  </si>
+  <si>
+    <t>P PAVAN</t>
+  </si>
+  <si>
+    <t>PRAVEESH</t>
+  </si>
+  <si>
+    <t>RAHUL E R</t>
+  </si>
+  <si>
+    <t>ROSHAN L R</t>
+  </si>
+  <si>
+    <t>SAANSANTRO.AJ</t>
+  </si>
+  <si>
+    <t>SAIBIN BOSE</t>
+  </si>
+  <si>
+    <t>SAI NIVED M S</t>
+  </si>
+  <si>
+    <t>SANJAY.K.V</t>
+  </si>
+  <si>
+    <t>SIJO SHAJI</t>
+  </si>
+  <si>
+    <t>SOORAJ S</t>
+  </si>
+  <si>
+    <t>SOORYA.S</t>
+  </si>
+  <si>
+    <t>SREERAJ K</t>
+  </si>
+  <si>
+    <t>SREERAJ KRISHNAN.K</t>
+  </si>
+  <si>
+    <t>SREERAM K</t>
+  </si>
+  <si>
+    <t>SREERAM K G</t>
+  </si>
+  <si>
+    <t>SUBEESH SEBASTIAN</t>
+  </si>
+  <si>
+    <t>VISHNU SANKAR M.U</t>
+  </si>
+  <si>
+    <t>VISHNU SIVAKUMAR P</t>
+  </si>
+  <si>
+    <t>YADHU KRISHNA</t>
+  </si>
+  <si>
+    <t>ABHISHEK T R</t>
+  </si>
+  <si>
+    <t>AMAL GOVIND P U</t>
+  </si>
+  <si>
+    <t>CHRISTO PAUL P</t>
+  </si>
+  <si>
+    <t>HARISH K M</t>
+  </si>
+  <si>
+    <t>MELWIN PAULY</t>
+  </si>
+  <si>
+    <t>AJIN J ALAPPAT</t>
+  </si>
+  <si>
+    <t>AJIN K J</t>
+  </si>
+  <si>
+    <t>AKSHAY P G</t>
+  </si>
+  <si>
+    <t>ALBIN DAVID C</t>
+  </si>
+  <si>
+    <t>ALBY THOMAS ZACHARIA</t>
+  </si>
+  <si>
+    <t>ALLEN GEORGE JOSE</t>
+  </si>
+  <si>
+    <t>AMAL KRISHNA</t>
+  </si>
+  <si>
+    <t>AMAL VIJAY</t>
+  </si>
+  <si>
+    <t>AMEEN K S</t>
+  </si>
+  <si>
+    <t>ANAKHA SUBRAMANIAN</t>
+  </si>
+  <si>
+    <t>ANANTH SHIV J S</t>
+  </si>
+  <si>
+    <t>ARUN SAJI</t>
+  </si>
+  <si>
+    <t>ASWIN A VINOY</t>
+  </si>
+  <si>
+    <t>AWIN SAJU</t>
+  </si>
+  <si>
+    <t>BENAT JOSE</t>
+  </si>
+  <si>
+    <t>DENNY ROBANS</t>
+  </si>
+  <si>
+    <t>DERIK YAKOV JOBY</t>
+  </si>
+  <si>
+    <t>DINTO AUGUSTINE</t>
+  </si>
+  <si>
+    <t>DIVIN U VARGHESE</t>
+  </si>
+  <si>
+    <t>EBIN TOM</t>
+  </si>
+  <si>
+    <t>EMIL KITHO N C</t>
+  </si>
+  <si>
+    <t>EMMANUAL JENSON</t>
+  </si>
+  <si>
+    <t>FAHAD</t>
+  </si>
+  <si>
+    <t>FANCIS MENUHIN</t>
+  </si>
+  <si>
+    <t>HAROON KABEER</t>
+  </si>
+  <si>
+    <t>JINCE MATHEW</t>
+  </si>
+  <si>
+    <t>JOEL JACOB THOMAS KALATHIL</t>
+  </si>
+  <si>
+    <t>JOSEPH K A</t>
+  </si>
+  <si>
+    <t>JOSEPH PAUL T</t>
+  </si>
+  <si>
+    <t>MIKHIL MANOJ CHANDY</t>
+  </si>
+  <si>
+    <t>MOHAMMED AMEER</t>
+  </si>
+  <si>
+    <t>MOHAMMED FAHIM MOHAMMED NIZAR</t>
+  </si>
+  <si>
+    <t>MOHAMMED RIYAS</t>
+  </si>
+  <si>
+    <t>NEVILGEO</t>
+  </si>
+  <si>
+    <t>PAUL THOMAS NETTIKADAN</t>
+  </si>
+  <si>
+    <t>ROFFIN JOSEPH</t>
+  </si>
+  <si>
+    <t>ROHITH KK</t>
+  </si>
+  <si>
+    <t>SAJAN T JOHN</t>
+  </si>
+  <si>
+    <t>SAJNA SUNNY T</t>
+  </si>
+  <si>
+    <t>SARATH K S</t>
+  </si>
+  <si>
+    <t>SAVIYO THERATTIL</t>
+  </si>
+  <si>
+    <t>REGHURAJ S</t>
+  </si>
+  <si>
+    <t>ANS ANTO.P</t>
+  </si>
+  <si>
+    <t>ASWIN V</t>
+  </si>
+  <si>
+    <t>JOEL VARGHESE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,12 +967,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -452,6 +989,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -521,7 +1065,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -542,6 +1086,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1248,7 +1810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D233C0D7-5BB3-437E-B36E-4DA07BC37037}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
@@ -1725,11 +2287,587 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E692668C-3E53-49F8-9521-034D53EBDE3D}">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>11911001</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>11911002</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>11911003</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>11911004</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>11911005</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>11911006</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>11911007</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>11911008</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>11911009</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>11911010</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>11911011</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>11911012</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>11911013</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>11911015</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>11911016</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>11911014</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>11911017</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>11911018</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>11911019</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>11911020</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>11911021</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>11911022</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>11911023</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>11911024</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>11911025</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>11911026</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>11911028</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>11911027</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>12021029</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>12021030</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>12021031</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>12021032</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>12021033</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>12021036</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>12021034</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <v>12021035</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A30" r:id="rId1" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{E671DFF6-243E-47FF-BA54-9D3BE2E0F6A6}"/>
+    <hyperlink ref="A31" r:id="rId2" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{0A7CD339-F9D4-44FC-B9B3-D48948BC699C}"/>
+    <hyperlink ref="A32" r:id="rId3" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{B901B86B-93ED-4BEE-B8FA-AAA1E3C45402}"/>
+    <hyperlink ref="A33" r:id="rId4" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{9BAE4CE2-2B68-4BDB-8FAD-D8040DCBED00}"/>
+    <hyperlink ref="A34" r:id="rId5" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{A7A22C93-CFF3-4EAA-9A0C-200427C143BB}"/>
+    <hyperlink ref="A35" r:id="rId6" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{D874E027-67FF-4132-A22E-A0460E6ED249}"/>
+    <hyperlink ref="A36" r:id="rId7" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{7D76D78A-68C0-47C7-966C-21AFE7768788}"/>
+    <hyperlink ref="A37" r:id="rId8" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{E7C79704-955B-41EB-9B85-57ABEDA85754}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70CC387-A94D-4504-A4E8-EB9254E27379}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>11914001</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>11914002</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>11914003</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>11914004</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>11914005</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>11914006</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>11914007</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>11914008</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>11914009</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>11914010</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>11914011</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>11914012</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>11914013</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>11914014</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>11914015</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>11914016</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>11914017</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>11914018</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>11914019</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>11914020</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>11914021</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>11914022</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>11914023</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>11914024</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>11914025</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>11914026</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>11914027</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>12024028</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1212BC1A-6F2C-41B5-90C5-2A77E745D6D8}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2015,4 +3153,1061 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A3B265-3F40-4E90-9340-A58420C373C9}">
+  <dimension ref="A1:B69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>11915001</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>11915002</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>11915003</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>11915004</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>11915005</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>11915006</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>11915008</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>11915009</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>11915010</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>11915011</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>11915012</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>11915013</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>11915014</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>11915015</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>11915016</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>11915017</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>11915018</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>11915019</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>11915020</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>11915021</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>11915022</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>11915023</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>11915024</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>11915025</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>11915026</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>11915027</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>11915028</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>11915029</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>11915030</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>11915031</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>11915032</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>11915033</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>11915034</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>11915035</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>11915037</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>11915036</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>11915038</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>11915039</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>11915040</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>11915041</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>11915042</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>11915043</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>11915044</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>11915045</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <v>11915046</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
+        <v>11915047</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
+        <v>11915048</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
+        <v>11915049</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
+        <v>11915050</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9">
+        <v>11915052</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9">
+        <v>11915051</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9">
+        <v>11915053</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9">
+        <v>11915054</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9">
+        <v>11915055</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9">
+        <v>11915056</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
+        <v>11915057</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
+        <v>11915058</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
+        <v>11915059</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9">
+        <v>11915060</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <v>11915061</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="9">
+        <v>11915062</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9">
+        <v>11915063</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9">
+        <v>11915065</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
+        <v>12025066</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="9">
+        <v>12025067</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9">
+        <v>12025068</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
+        <v>12025069</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="9">
+        <v>12025070</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B69" r:id="rId1" display="https://jecc.ac.in/campusbook/students/view/5123" xr:uid="{CB85D00F-B4D0-41C1-B6A2-BEAF7918484E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1620FF18-4D16-4349-B434-05459B47BA86}">
+  <dimension ref="A1:B69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>11916002</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>11916003</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>11916004</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>11916005</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>11916006</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>11916007</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>11916008</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>11916009</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>11916010</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>11916011</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>11916012</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>11916013</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>11916014</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>11916015</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>11916016</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>11916017</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>11916018</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>11916019</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>11916020</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>11916021</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>11916022</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>11916023</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>11916024</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>11916025</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>11916026</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>11916027</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>11916028</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>11916029</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>11916030</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>11916031</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>11916032</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>11916033</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>11916034</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>11916035</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>11916036</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>11916038</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>11916039</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>11916040</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>11916041</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>11916042</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>11916043</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>11916037</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>12026044</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>12026045</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9">
+        <v>12026046</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9"/>
+      <c r="B47" s="12"/>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+      <c r="B48" s="12"/>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="12"/>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+      <c r="B50" s="12"/>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9"/>
+      <c r="B51" s="12"/>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="B52" s="12"/>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9"/>
+      <c r="B53" s="12"/>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9"/>
+      <c r="B54" s="12"/>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9"/>
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9"/>
+      <c r="B56" s="12"/>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9"/>
+      <c r="B57" s="12"/>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9"/>
+      <c r="B58" s="12"/>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9"/>
+      <c r="B59" s="12"/>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9"/>
+      <c r="B60" s="12"/>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9"/>
+      <c r="B61" s="12"/>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="9"/>
+      <c r="B62" s="12"/>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9"/>
+      <c r="B63" s="12"/>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+      <c r="B64" s="12"/>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="9"/>
+      <c r="B65" s="12"/>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="9"/>
+      <c r="B66" s="12"/>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9"/>
+      <c r="B67" s="12"/>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9"/>
+      <c r="B68" s="12"/>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="9"/>
+      <c r="B69" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B44" r:id="rId1" display="https://jecc.ac.in/campusbook/students/view/5125" xr:uid="{0962D6A3-BE28-4507-9295-630E2C04B278}"/>
+    <hyperlink ref="B45" r:id="rId2" display="https://jecc.ac.in/campusbook/students/view/5168" xr:uid="{181E5468-6A8C-4E0D-A5C5-19E6D2911E04}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Student Data/FourthYearStudents.xlsx
+++ b/Student Data/FourthYearStudents.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Exam-Seat-Arrangement\Student Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C306A59C-FF93-4E95-AFC0-773BBCA1B655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA75FAF-85AA-4BC4-B3FB-D47FEAE50606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="csa" sheetId="1" r:id="rId1"/>
     <sheet name="csb" sheetId="2" r:id="rId2"/>
-    <sheet name="ce" sheetId="4" r:id="rId3"/>
-    <sheet name="ec" sheetId="5" r:id="rId4"/>
+    <sheet name="ec" sheetId="5" r:id="rId3"/>
+    <sheet name="ce" sheetId="4" r:id="rId4"/>
     <sheet name="ee" sheetId="3" r:id="rId5"/>
     <sheet name="me" sheetId="6" r:id="rId6"/>
     <sheet name="mr" sheetId="7" r:id="rId7"/>
@@ -2287,331 +2287,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E692668C-3E53-49F8-9521-034D53EBDE3D}">
-  <dimension ref="A1:B37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>11911001</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
-        <v>11911002</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>11911003</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>11911004</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>11911005</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>11911006</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>11911007</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>11911008</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>11911009</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>11911010</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>11911011</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>11911012</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>11911013</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>11911015</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>11911016</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>11911014</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>11911017</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>11911018</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>11911019</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>11911020</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>11911021</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>11911022</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
-        <v>11911023</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <v>11911024</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>11911025</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
-        <v>11911026</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
-        <v>11911028</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
-        <v>11911027</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
-        <v>12021029</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
-        <v>12021030</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
-        <v>12021031</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
-        <v>12021032</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
-        <v>12021033</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
-        <v>12021036</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
-        <v>12021034</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
-        <v>12021035</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A30" r:id="rId1" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{E671DFF6-243E-47FF-BA54-9D3BE2E0F6A6}"/>
-    <hyperlink ref="A31" r:id="rId2" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{0A7CD339-F9D4-44FC-B9B3-D48948BC699C}"/>
-    <hyperlink ref="A32" r:id="rId3" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{B901B86B-93ED-4BEE-B8FA-AAA1E3C45402}"/>
-    <hyperlink ref="A33" r:id="rId4" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{9BAE4CE2-2B68-4BDB-8FAD-D8040DCBED00}"/>
-    <hyperlink ref="A34" r:id="rId5" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{A7A22C93-CFF3-4EAA-9A0C-200427C143BB}"/>
-    <hyperlink ref="A35" r:id="rId6" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{D874E027-67FF-4132-A22E-A0460E6ED249}"/>
-    <hyperlink ref="A36" r:id="rId7" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{7D76D78A-68C0-47C7-966C-21AFE7768788}"/>
-    <hyperlink ref="A37" r:id="rId8" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{E7C79704-955B-41EB-9B85-57ABEDA85754}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70CC387-A94D-4504-A4E8-EB9254E27379}">
   <dimension ref="A1:B29"/>
   <sheetViews>
@@ -2862,11 +2537,336 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E692668C-3E53-49F8-9521-034D53EBDE3D}">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>11911001</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>11911002</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>11911003</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>11911004</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>11911005</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>11911006</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>11911007</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>11911008</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>11911009</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>11911010</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>11911011</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>11911012</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>11911013</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>11911015</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>11911016</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>11911014</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>11911017</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>11911018</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>11911019</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>11911020</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>11911021</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>11911022</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>11911023</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>11911024</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>11911025</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>11911026</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>11911028</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>11911027</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>12021029</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>12021030</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>12021031</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>12021032</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>12021033</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>12021036</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>12021034</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <v>12021035</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A30" r:id="rId1" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{E671DFF6-243E-47FF-BA54-9D3BE2E0F6A6}"/>
+    <hyperlink ref="A31" r:id="rId2" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{0A7CD339-F9D4-44FC-B9B3-D48948BC699C}"/>
+    <hyperlink ref="A32" r:id="rId3" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{B901B86B-93ED-4BEE-B8FA-AAA1E3C45402}"/>
+    <hyperlink ref="A33" r:id="rId4" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{9BAE4CE2-2B68-4BDB-8FAD-D8040DCBED00}"/>
+    <hyperlink ref="A34" r:id="rId5" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{A7A22C93-CFF3-4EAA-9A0C-200427C143BB}"/>
+    <hyperlink ref="A35" r:id="rId6" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{D874E027-67FF-4132-A22E-A0460E6ED249}"/>
+    <hyperlink ref="A36" r:id="rId7" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{7D76D78A-68C0-47C7-966C-21AFE7768788}"/>
+    <hyperlink ref="A37" r:id="rId8" display="https://jecc.ac.in/campusbook/students/view/4361" xr:uid="{E7C79704-955B-41EB-9B85-57ABEDA85754}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1212BC1A-6F2C-41B5-90C5-2A77E745D6D8}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
